--- a/src/main/resources/ScenarioResults.xlsx
+++ b/src/main/resources/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>2021-04-17 07_16_46</t>
+  </si>
+  <si>
+    <t>2021-04-17 08_01_09</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -284,6 +287,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
